--- a/data/trans_camb/P1418-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1418-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-4.884680891523034</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4693339678219735</v>
+        <v>0.4693339678219707</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.5303526413606846</v>
@@ -655,7 +655,7 @@
         <v>-2.761599662762429</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.512578730141181</v>
+        <v>1.512578730141179</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-0.9055496693035819</v>
@@ -664,7 +664,7 @@
         <v>-3.620212247431928</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.266794180298009</v>
+        <v>1.266794180298006</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.891199087751938</v>
+        <v>-5.504340688394777</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.59469750491715</v>
+        <v>-7.360601923867234</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.518290376492786</v>
+        <v>-2.559826237545088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.355317177746826</v>
+        <v>-2.455213547164889</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-6.161333390610533</v>
+        <v>-6.003314231901695</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.477637976798316</v>
+        <v>-1.889874890811817</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.954774365801607</v>
+        <v>-3.195802208326644</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-5.771582807763358</v>
+        <v>-5.710730420041613</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-0.9831921353248727</v>
+        <v>-1.009777527543502</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.6844051629323324</v>
+        <v>-0.24567482172824</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.349181200998139</v>
+        <v>-2.567029040031148</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.316451611342309</v>
+        <v>3.372265684036829</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.374630632625825</v>
+        <v>3.580314465318112</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3796419700150854</v>
+        <v>0.4626006050412232</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.475819211625644</v>
+        <v>4.383240656110788</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.083214720570197</v>
+        <v>1.273984137245169</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-1.556941359755084</v>
+        <v>-1.340479002911555</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.448229214825534</v>
+        <v>3.299178540649152</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.4370851048967214</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.04199637419776256</v>
+        <v>0.04199637419776232</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.0294104089945245</v>
@@ -760,7 +760,7 @@
         <v>-0.1531429641843674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08387920719266619</v>
+        <v>0.08387920719266603</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.06029673140562682</v>
@@ -769,7 +769,7 @@
         <v>-0.2410546576452713</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.08435047907905861</v>
+        <v>0.08435047907905842</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4682451666735525</v>
+        <v>-0.4558590919574642</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.588075140500295</v>
+        <v>-0.5988791917975328</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.203273698156958</v>
+        <v>-0.2136994367381581</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1227727269684531</v>
+        <v>-0.126844248530408</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3119594626616652</v>
+        <v>-0.3109549539055806</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.07456998107489245</v>
+        <v>-0.09691647958155575</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1876346044350067</v>
+        <v>-0.1951469497888626</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.359176584781973</v>
+        <v>-0.3553810656415349</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.0608617364090225</v>
+        <v>-0.06453956936144252</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.06446890881256345</v>
+        <v>-0.02073050085072281</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.2209678560463885</v>
+        <v>-0.2529166352484203</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3446132106230166</v>
+        <v>0.33266993092031</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.2051748691449403</v>
+        <v>0.2160974514671526</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02457030997731909</v>
+        <v>0.02760916976843518</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.269471876165795</v>
+        <v>0.2642654649938044</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07713895725128748</v>
+        <v>0.09399130388176424</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1090295332867144</v>
+        <v>-0.0947514046359729</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2496807360777207</v>
+        <v>0.2371132934540585</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>-1.256854765717165</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.4416618421853757</v>
+        <v>0.4416618421853744</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.819428037342444</v>
+        <v>-2.785035249623135</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.596342361281723</v>
+        <v>-2.572068039005369</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.055502793694842</v>
+        <v>-0.921893502862941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.926915179114879</v>
+        <v>-2.033951430530718</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.460263805217685</v>
+        <v>-2.434352107428581</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.7144413185921559</v>
+        <v>-0.7936934624037039</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.020686983130574</v>
+        <v>-2.001131289791152</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.183598441062644</v>
+        <v>-2.233814219337625</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.4007195507150794</v>
+        <v>-0.4135191526323026</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.8172815477304951</v>
+        <v>-0.7462452040184037</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.5099162806157864</v>
+        <v>-0.59719770733519</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.304191067428415</v>
+        <v>1.195568333846959</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.070973171752778</v>
+        <v>1.165656421311523</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4192425505007382</v>
+        <v>0.4077559104766907</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.048620010594493</v>
+        <v>2.026878131682612</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.2298841005656749</v>
+        <v>-0.1741568258471648</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-0.4042423094414991</v>
+        <v>-0.366974999887095</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.319911331669368</v>
+        <v>1.226240114866702</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>-0.3020915246887283</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1061557014715869</v>
+        <v>0.1061557014715866</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7608714321143583</v>
+        <v>-0.7647495566566405</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6915417759011966</v>
+        <v>-0.7096207284022681</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.278715300382491</v>
+        <v>-0.2681151438985046</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3166124350811927</v>
+        <v>-0.3208207108148175</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4068952866011545</v>
+        <v>-0.384283160280154</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1248635358488231</v>
+        <v>-0.1388752806326545</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4417547462134028</v>
+        <v>-0.4274109043464221</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4558471776936797</v>
+        <v>-0.4611999913889799</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.08974548569423589</v>
+        <v>-0.08750251631029421</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.2868402218917924</v>
+        <v>-0.2967815483539034</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.1963958093649377</v>
+        <v>-0.2416291831738807</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5564825989402682</v>
+        <v>0.5030988192342575</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2286706881089774</v>
+        <v>0.2488105412306419</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.08486744856213685</v>
+        <v>0.1001640692687841</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4543122936579133</v>
+        <v>0.4437072226348717</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.06211428689675723</v>
+        <v>-0.03770109071265004</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.104143502337756</v>
+        <v>-0.09436349871639001</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3666284271946037</v>
+        <v>0.3361868543119191</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.825838497516494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.9136179065523151</v>
+        <v>-0.9136179065523155</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-2.045041645607776</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.267193385194392</v>
+        <v>-2.944596903345392</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.559475290995535</v>
+        <v>-3.595403651086207</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.780357142551922</v>
+        <v>-2.633487457513549</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.414035511488261</v>
+        <v>-4.643569719669351</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.036186191674995</v>
+        <v>-3.772823425051476</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.878231698962822</v>
+        <v>-1.646684351684494</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.20714412708907</v>
+        <v>-3.127396984472009</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-3.155866215354712</v>
+        <v>-3.009820457098868</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.540167619693146</v>
+        <v>-1.550903583191206</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1565706901839952</v>
+        <v>0.3792463945778801</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-0.4632740363985773</v>
+        <v>-0.3025586495637019</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4493752998308881</v>
+        <v>0.5859293839705489</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1919593591697537</v>
+        <v>-0.1075145862156191</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6143599723355353</v>
+        <v>0.8526290848712058</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.774968552174437</v>
+        <v>3.108192301817508</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.2989731399617114</v>
+        <v>-0.2692550019870774</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-0.3468322750858591</v>
+        <v>-0.308093029960273</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.27048411164189</v>
+        <v>1.382592352464808</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.7234948001688803</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3620242456443258</v>
+        <v>-0.3620242456443259</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.5033409695366373</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.9258121514742277</v>
+        <v>-0.899789484841008</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9399762656191929</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7427143466733612</v>
+        <v>-0.7172485371835753</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8055825747704418</v>
+        <v>-0.8071929404817958</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7169842944677167</v>
+        <v>-0.6904849798462858</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3471638306820847</v>
+        <v>-0.3010649720111969</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.7881850527776681</v>
+        <v>-0.7588759822137171</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.7524512576676649</v>
+        <v>-0.7468190933838167</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3680618428692724</v>
+        <v>-0.3555858002479094</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2511740348094325</v>
+        <v>0.4885219255338795</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1187108314787912</v>
+        <v>0.07556274741237819</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.3318434024205835</v>
+        <v>0.4673368482033016</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1024588460563424</v>
+        <v>0.05486667396845882</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3100277023158491</v>
+        <v>0.3948832696206155</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.060435010392438</v>
+        <v>1.254247223996667</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1089005696186659</v>
+        <v>-0.053809268723898</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.09849228425687342</v>
+        <v>-0.08251357302682343</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.543369424713655</v>
+        <v>0.6235302960555077</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-3.046375992577385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.25419010873886</v>
+        <v>-1.254190108738861</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.4130086171858283</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.289221238246146</v>
+        <v>-3.401365201936639</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.008510352982422</v>
+        <v>-4.057160446428183</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.284006619164663</v>
+        <v>-2.35095350793493</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.797473993440309</v>
+        <v>-1.824893918556784</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.337070741811288</v>
+        <v>-4.352915368282595</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-2.67811344740502</v>
+        <v>-2.595370377158006</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-2.281534315125346</v>
+        <v>-2.233510181050701</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.849802379340524</v>
+        <v>-3.858674769855174</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.07316258713442</v>
+        <v>-2.11326323696249</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-1.236774916123417</v>
+        <v>-1.410460164911329</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.095543263408351</v>
+        <v>-2.102710107643917</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.2309346521749992</v>
+        <v>-0.3378572495692349</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.106874106418011</v>
+        <v>1.183603188409171</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-1.587191752677626</v>
+        <v>-1.600849891718295</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-0.09546393381055185</v>
+        <v>-0.05697965150158901</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.4158898178510002</v>
+        <v>-0.4679961578393897</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.147558020528277</v>
+        <v>-2.161300708313992</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.4248908126584282</v>
+        <v>-0.4944243260931941</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.5573732888596885</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.2294700547359672</v>
+        <v>-0.2294700547359674</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.04067110543815084</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5532602573064171</v>
+        <v>-0.5587403878114334</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6557103879395489</v>
+        <v>-0.655843921217144</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.3760627572277161</v>
+        <v>-0.3821243621336425</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1666852424351787</v>
+        <v>-0.1695611491312523</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4013041426263016</v>
+        <v>-0.400149599134712</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2426925465183342</v>
+        <v>-0.2383718410145742</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2735563308677804</v>
+        <v>-0.2708626655912234</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4694757706822805</v>
+        <v>-0.464082971011325</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2489423039740011</v>
+        <v>-0.2512711740969671</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2529067959271781</v>
+        <v>-0.2791587744495667</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.4276562711728321</v>
+        <v>-0.4020886275926172</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.04731223928776473</v>
+        <v>-0.06427127786694287</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.114639981934898</v>
+        <v>0.1243795401779828</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1754550003105491</v>
+        <v>-0.1719316355541299</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.008164522688382816</v>
+        <v>-0.003787486572212613</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.05481184470491074</v>
+        <v>-0.06381545199073442</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.295405635923131</v>
+        <v>-0.2856387224783124</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.05721957592545251</v>
+        <v>-0.06545790605012329</v>
       </c>
     </row>
     <row r="28">
